--- a/data/trans_orig/ip24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F753C1-7AAE-495F-8862-2164A484B9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D650F8-1CB9-4097-9BBE-49A0BCBFD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F4DF5A3E-F09D-47B2-8494-BFBB65D6B78C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CF26096D-C7BE-4571-9C4D-F9393BE8D223}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,96 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>NO hace ejercicio, no tiene tiempo libre</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
     <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
   </si>
   <si>
@@ -98,36 +188,6 @@
     <t>12,39%</t>
   </si>
   <si>
-    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
     <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
   </si>
   <si>
@@ -137,9 +197,6 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
     <t>5,51%</t>
   </si>
   <si>
@@ -158,63 +215,6 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>NO hace ejercicio, no tiene tiempo libre</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
@@ -248,9 +248,249 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
     <t>28,24%</t>
   </si>
   <si>
@@ -278,33 +518,6 @@
     <t>30,27%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
     <t>16,76%</t>
   </si>
   <si>
@@ -332,60 +545,6 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
@@ -413,163 +572,79 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>24,8%</t>
@@ -599,33 +674,6 @@
     <t>24,73%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
     <t>10,77%</t>
   </si>
   <si>
@@ -648,54 +696,6 @@
   </si>
   <si>
     <t>12,49%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
   </si>
   <si>
     <t>1,75%</t>
@@ -1111,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081F2A49-DAC5-41E1-B7BE-4E5BA80D33A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6C3655-23E9-4122-A6AA-28161585308F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1229,10 +1229,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>9716</v>
+        <v>12034</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1244,10 +1244,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>9772</v>
+        <v>11387</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1259,10 +1259,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>19488</v>
+        <v>23421</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1280,10 +1280,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>51676</v>
+        <v>28571</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1295,10 +1295,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>44108</v>
+        <v>23286</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1310,10 +1310,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="N5" s="7">
-        <v>95785</v>
+        <v>51857</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1331,10 +1331,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D6" s="7">
-        <v>3925</v>
+        <v>51676</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1346,10 +1346,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7">
-        <v>5636</v>
+        <v>44108</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1361,10 +1361,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="N6" s="7">
-        <v>9562</v>
+        <v>95785</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1382,76 +1382,76 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>12034</v>
+        <v>9716</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>11387</v>
+        <v>9772</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>23421</v>
+        <v>19488</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>28571</v>
+        <v>3925</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>23286</v>
+        <v>5636</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
@@ -1463,10 +1463,10 @@
         <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>51857</v>
+        <v>9562</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>56</v>
@@ -1588,10 +1588,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>113712</v>
+        <v>7356</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1603,10 +1603,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>89302</v>
+        <v>5240</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1618,10 +1618,10 @@
         <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>203014</v>
+        <v>12597</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -1639,10 +1639,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>165548</v>
+        <v>16824</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -1654,10 +1654,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>158793</v>
+        <v>26134</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -1669,10 +1669,10 @@
         <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>403</v>
+        <v>61</v>
       </c>
       <c r="N12" s="7">
-        <v>324341</v>
+        <v>42958</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -1690,10 +1690,10 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>67497</v>
+        <v>100355</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -1705,10 +1705,10 @@
         <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="I13" s="7">
-        <v>38469</v>
+        <v>118874</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -1720,10 +1720,10 @@
         <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="N13" s="7">
-        <v>105966</v>
+        <v>219229</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -1741,10 +1741,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>7531</v>
+        <v>55560</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -1756,10 +1756,10 @@
         <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>7703</v>
+        <v>32395</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -1771,10 +1771,10 @@
         <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>15235</v>
+        <v>87955</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>104</v>
@@ -1789,13 +1789,13 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7">
-        <v>46804</v>
+        <v>21879</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>107</v>
@@ -1807,10 +1807,10 @@
         <v>109</v>
       </c>
       <c r="H15" s="7">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7">
-        <v>53548</v>
+        <v>11752</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>110</v>
@@ -1822,10 +1822,10 @@
         <v>112</v>
       </c>
       <c r="M15" s="7">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="N15" s="7">
-        <v>100352</v>
+        <v>33630</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>113</v>
@@ -1843,10 +1843,10 @@
         <v>59</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1618</v>
+        <v>2193</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>116</v>
@@ -1858,10 +1858,10 @@
         <v>118</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>2994</v>
+        <v>3872</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>119</v>
@@ -1873,10 +1873,10 @@
         <v>121</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>4612</v>
+        <v>6065</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>122</v>
@@ -1894,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="D17" s="7">
-        <v>402710</v>
+        <v>204167</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -1909,10 +1909,10 @@
         <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>69</v>
@@ -1924,10 +1924,10 @@
         <v>69</v>
       </c>
       <c r="M17" s="7">
-        <v>941</v>
+        <v>551</v>
       </c>
       <c r="N17" s="7">
-        <v>753519</v>
+        <v>402435</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>69</v>
@@ -1947,10 +1947,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>55560</v>
+        <v>7531</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>126</v>
@@ -1962,10 +1962,10 @@
         <v>128</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>32395</v>
+        <v>7703</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>129</v>
@@ -1977,10 +1977,10 @@
         <v>131</v>
       </c>
       <c r="M18" s="7">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>87955</v>
+        <v>15235</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>132</v>
@@ -1998,10 +1998,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>100355</v>
+        <v>46804</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>135</v>
@@ -2013,10 +2013,10 @@
         <v>137</v>
       </c>
       <c r="H19" s="7">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>118874</v>
+        <v>53548</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>138</v>
@@ -2028,19 +2028,19 @@
         <v>140</v>
       </c>
       <c r="M19" s="7">
-        <v>297</v>
+        <v>116</v>
       </c>
       <c r="N19" s="7">
-        <v>219229</v>
+        <v>100352</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,49 +2049,49 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D20" s="7">
-        <v>21879</v>
+        <v>165548</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>211</v>
+      </c>
+      <c r="I20" s="7">
+        <v>158793</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="7">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7">
-        <v>11752</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>403</v>
+      </c>
+      <c r="N20" s="7">
+        <v>324341</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M20" s="7">
-        <v>50</v>
-      </c>
-      <c r="N20" s="7">
-        <v>33630</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,100 +2100,100 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D21" s="7">
-        <v>7356</v>
+        <v>113712</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>118</v>
+      </c>
+      <c r="I21" s="7">
+        <v>89302</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="7">
-        <v>8</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5240</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>251</v>
+      </c>
+      <c r="N21" s="7">
+        <v>203014</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M21" s="7">
-        <v>18</v>
-      </c>
-      <c r="N21" s="7">
-        <v>12597</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D22" s="7">
-        <v>16824</v>
+        <v>67497</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>57</v>
+      </c>
+      <c r="I22" s="7">
+        <v>38469</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="7">
-        <v>35</v>
-      </c>
-      <c r="I22" s="7">
-        <v>26134</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>144</v>
+      </c>
+      <c r="N22" s="7">
+        <v>105966</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M22" s="7">
-        <v>61</v>
-      </c>
-      <c r="N22" s="7">
-        <v>42958</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,10 +2202,10 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>2193</v>
+        <v>1618</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>169</v>
@@ -2217,10 +2217,10 @@
         <v>171</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>3872</v>
+        <v>2994</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>172</v>
@@ -2232,10 +2232,10 @@
         <v>174</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>6065</v>
+        <v>4612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>175</v>
@@ -2253,10 +2253,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="D24" s="7">
-        <v>204167</v>
+        <v>402710</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>69</v>
@@ -2268,10 +2268,10 @@
         <v>69</v>
       </c>
       <c r="H24" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I24" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>69</v>
@@ -2283,10 +2283,10 @@
         <v>69</v>
       </c>
       <c r="M24" s="7">
-        <v>551</v>
+        <v>941</v>
       </c>
       <c r="N24" s="7">
-        <v>402435</v>
+        <v>753519</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>69</v>
@@ -2306,10 +2306,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
-        <v>178988</v>
+        <v>26921</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>178</v>
@@ -2318,37 +2318,37 @@
         <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="7">
+        <v>42</v>
+      </c>
+      <c r="I25" s="7">
+        <v>24331</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H25" s="7">
+      <c r="K25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="7">
+        <v>89</v>
+      </c>
+      <c r="N25" s="7">
+        <v>51252</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I25" s="7">
-        <v>131469</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M25" s="7">
-        <v>401</v>
-      </c>
-      <c r="N25" s="7">
-        <v>310457</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,49 +2357,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>417</v>
+        <v>139</v>
       </c>
       <c r="D26" s="7">
-        <v>317578</v>
+        <v>92200</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>143</v>
+      </c>
+      <c r="I26" s="7">
+        <v>102967</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H26" s="7">
-        <v>456</v>
-      </c>
-      <c r="I26" s="7">
-        <v>321776</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>282</v>
+      </c>
+      <c r="N26" s="7">
+        <v>195167</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M26" s="7">
-        <v>873</v>
-      </c>
-      <c r="N26" s="7">
-        <v>639355</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,49 +2408,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>124</v>
+        <v>417</v>
       </c>
       <c r="D27" s="7">
-        <v>93301</v>
+        <v>317578</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>456</v>
+      </c>
+      <c r="I27" s="7">
+        <v>321776</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="7">
-        <v>89</v>
-      </c>
-      <c r="I27" s="7">
-        <v>55857</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>873</v>
+      </c>
+      <c r="N27" s="7">
+        <v>639355</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M27" s="7">
-        <v>213</v>
-      </c>
-      <c r="N27" s="7">
-        <v>149158</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,25 +2459,25 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="D28" s="7">
-        <v>26921</v>
+        <v>178988</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="H28" s="7">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="I28" s="7">
-        <v>24331</v>
+        <v>131469</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>206</v>
@@ -2489,34 +2489,34 @@
         <v>208</v>
       </c>
       <c r="M28" s="7">
-        <v>89</v>
+        <v>401</v>
       </c>
       <c r="N28" s="7">
-        <v>51252</v>
+        <v>310457</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D29" s="7">
-        <v>92200</v>
+        <v>93301</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>212</v>
@@ -2525,10 +2525,10 @@
         <v>213</v>
       </c>
       <c r="H29" s="7">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="I29" s="7">
-        <v>102967</v>
+        <v>55857</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>214</v>
@@ -2540,10 +2540,10 @@
         <v>216</v>
       </c>
       <c r="M29" s="7">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="N29" s="7">
-        <v>195167</v>
+        <v>149158</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>217</v>
@@ -2570,7 +2570,7 @@
         <v>220</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>221</v>

--- a/data/trans_orig/ip24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D650F8-1CB9-4097-9BBE-49A0BCBFD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0030E320-62B9-4BF1-85DA-D673DB07D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CF26096D-C7BE-4571-9C4D-F9393BE8D223}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AFD44F4-094C-49EC-AFF0-7F66E3278B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="280">
   <si>
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre / solo 2023 en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
@@ -65,661 +65,817 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>NO hace ejercicio, no tiene tiempo libre</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -730,7 +886,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -826,39 +982,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -910,7 +1066,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1021,13 +1177,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1036,6 +1185,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1100,19 +1256,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6C3655-23E9-4122-A6AA-28161585308F}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B3DF5-2B76-429E-AD09-C00368927DCB}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1229,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>12034</v>
+        <v>4424</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1244,10 +1420,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>11387</v>
+        <v>6009</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1259,10 +1435,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>23421</v>
+        <v>10432</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1280,10 +1456,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>28571</v>
+        <v>1748</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1295,10 +1471,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>23286</v>
+        <v>3104</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1310,10 +1486,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>51857</v>
+        <v>4852</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1331,10 +1507,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>51676</v>
+        <v>1110</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1346,10 +1522,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>44108</v>
+        <v>2713</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1361,10 +1537,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>95785</v>
+        <v>3823</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1382,10 +1558,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>9716</v>
+        <v>19975</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1397,10 +1573,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>9772</v>
+        <v>19207</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1412,10 +1588,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="N7" s="7">
-        <v>19488</v>
+        <v>39183</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1433,10 +1609,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>3925</v>
+        <v>19476</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1445,88 +1621,88 @@
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>5636</v>
+        <v>16312</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>9562</v>
+        <v>35788</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>8782</v>
+        <v>8989</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>8098</v>
+        <v>8508</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>16880</v>
+        <v>17497</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,78 +1711,78 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7">
-        <v>114705</v>
+        <v>55722</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="I10" s="7">
-        <v>102287</v>
+        <v>55853</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="N10" s="7">
-        <v>216992</v>
+        <v>111575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>7356</v>
+        <v>6393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>5240</v>
+        <v>4316</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1618,19 +1794,19 @@
         <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>12597</v>
+        <v>10709</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1639,49 +1815,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>16824</v>
+        <v>11624</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8193</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="7">
+      <c r="K12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="7">
         <v>35</v>
       </c>
-      <c r="I12" s="7">
-        <v>26134</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="N12" s="7">
+        <v>19817</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="7">
-        <v>61</v>
-      </c>
-      <c r="N12" s="7">
-        <v>42958</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,49 +1866,49 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>100355</v>
+        <v>39317</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>35</v>
+      </c>
+      <c r="I13" s="7">
+        <v>20741</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="7">
-        <v>165</v>
-      </c>
-      <c r="I13" s="7">
-        <v>118874</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>92</v>
+      </c>
+      <c r="N13" s="7">
+        <v>60057</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M13" s="7">
-        <v>297</v>
-      </c>
-      <c r="N13" s="7">
-        <v>219229</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,49 +1917,49 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7">
-        <v>55560</v>
+        <v>90898</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>148</v>
+      </c>
+      <c r="I14" s="7">
+        <v>94983</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="7">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32395</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>290</v>
+      </c>
+      <c r="N14" s="7">
+        <v>185880</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="7">
-        <v>115</v>
-      </c>
-      <c r="N14" s="7">
-        <v>87955</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,100 +1968,100 @@
         <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>21879</v>
+        <v>18948</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7">
+        <v>24071</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="7">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7">
-        <v>11752</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>71</v>
+      </c>
+      <c r="N15" s="7">
+        <v>43019</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="7">
-        <v>50</v>
-      </c>
-      <c r="N15" s="7">
-        <v>33630</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>2193</v>
+        <v>7667</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6461</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3872</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>25</v>
+      </c>
+      <c r="N16" s="7">
+        <v>14128</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6065</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,102 +2070,102 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D17" s="7">
-        <v>204167</v>
+        <v>174846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I17" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N17" s="7">
-        <v>402435</v>
+        <v>333610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>7531</v>
+        <v>984</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2468</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7703</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>5</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3452</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M18" s="7">
-        <v>20</v>
-      </c>
-      <c r="N18" s="7">
-        <v>15235</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,49 +2174,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>46804</v>
+        <v>28304</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="7">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7">
+        <v>18046</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="7">
-        <v>62</v>
-      </c>
-      <c r="I19" s="7">
-        <v>53548</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>61</v>
+      </c>
+      <c r="N19" s="7">
+        <v>46350</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="M19" s="7">
-        <v>116</v>
-      </c>
-      <c r="N19" s="7">
-        <v>100352</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,49 +2225,49 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7">
-        <v>165548</v>
+        <v>54931</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>52</v>
+      </c>
+      <c r="I20" s="7">
+        <v>38940</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="7">
-        <v>211</v>
-      </c>
-      <c r="I20" s="7">
-        <v>158793</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>112</v>
+      </c>
+      <c r="N20" s="7">
+        <v>93871</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="M20" s="7">
-        <v>403</v>
-      </c>
-      <c r="N20" s="7">
-        <v>324341</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,49 +2276,49 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7">
-        <v>113712</v>
+        <v>92460</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>126</v>
+      </c>
+      <c r="I21" s="7">
+        <v>95983</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="7">
-        <v>118</v>
-      </c>
-      <c r="I21" s="7">
-        <v>89302</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>236</v>
+      </c>
+      <c r="N21" s="7">
+        <v>188443</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="7">
-        <v>251</v>
-      </c>
-      <c r="N21" s="7">
-        <v>203014</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,100 +2327,100 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7">
-        <v>67497</v>
+        <v>20799</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>23</v>
+      </c>
+      <c r="I22" s="7">
+        <v>17873</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="7">
-        <v>57</v>
-      </c>
-      <c r="I22" s="7">
-        <v>38469</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>52</v>
+      </c>
+      <c r="N22" s="7">
+        <v>38673</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M22" s="7">
-        <v>144</v>
-      </c>
-      <c r="N22" s="7">
-        <v>105966</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>1618</v>
+        <v>4111</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>2994</v>
+        <v>2803</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>9</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6914</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M23" s="7">
-        <v>7</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4612</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,96 +2429,96 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>479</v>
+        <v>242</v>
       </c>
       <c r="D24" s="7">
-        <v>402710</v>
+        <v>201590</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I24" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
-        <v>941</v>
+        <v>475</v>
       </c>
       <c r="N24" s="7">
-        <v>753519</v>
+        <v>377703</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>26921</v>
+        <v>794</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="H25" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>24331</v>
+        <v>2171</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2964</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="M25" s="7">
-        <v>89</v>
-      </c>
-      <c r="N25" s="7">
-        <v>51252</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>183</v>
@@ -2357,10 +2533,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="D26" s="7">
-        <v>92200</v>
+        <v>51626</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>185</v>
@@ -2372,10 +2548,10 @@
         <v>187</v>
       </c>
       <c r="H26" s="7">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="I26" s="7">
-        <v>102967</v>
+        <v>26514</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>188</v>
@@ -2387,10 +2563,10 @@
         <v>190</v>
       </c>
       <c r="M26" s="7">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="N26" s="7">
-        <v>195167</v>
+        <v>78139</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>191</v>
@@ -2408,10 +2584,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>417</v>
+        <v>99</v>
       </c>
       <c r="D27" s="7">
-        <v>317578</v>
+        <v>83630</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>194</v>
@@ -2423,10 +2599,10 @@
         <v>196</v>
       </c>
       <c r="H27" s="7">
-        <v>456</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>321776</v>
+        <v>69075</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>197</v>
@@ -2438,10 +2614,10 @@
         <v>199</v>
       </c>
       <c r="M27" s="7">
-        <v>873</v>
+        <v>190</v>
       </c>
       <c r="N27" s="7">
-        <v>639355</v>
+        <v>152705</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>200</v>
@@ -2459,10 +2635,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="D28" s="7">
-        <v>178988</v>
+        <v>114245</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>203</v>
@@ -2474,10 +2650,10 @@
         <v>205</v>
       </c>
       <c r="H28" s="7">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="I28" s="7">
-        <v>131469</v>
+        <v>111603</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>206</v>
@@ -2489,10 +2665,10 @@
         <v>208</v>
       </c>
       <c r="M28" s="7">
-        <v>401</v>
+        <v>278</v>
       </c>
       <c r="N28" s="7">
-        <v>310457</v>
+        <v>225849</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>209</v>
@@ -2510,25 +2686,25 @@
         <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7">
-        <v>93301</v>
+        <v>32976</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>213</v>
       </c>
       <c r="H29" s="7">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>55857</v>
+        <v>44712</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>214</v>
@@ -2540,10 +2716,10 @@
         <v>216</v>
       </c>
       <c r="M29" s="7">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="N29" s="7">
-        <v>149158</v>
+        <v>77687</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>217</v>
@@ -2558,28 +2734,28 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>12594</v>
+        <v>6154</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>221</v>
       </c>
       <c r="H30" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>14964</v>
+        <v>6559</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>222</v>
@@ -2591,10 +2767,10 @@
         <v>224</v>
       </c>
       <c r="M30" s="7">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N30" s="7">
-        <v>27558</v>
+        <v>12713</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>225</v>
@@ -2603,7 +2779,7 @@
         <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,55 +2788,420 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>342</v>
+      </c>
+      <c r="D31" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="7">
+        <v>342</v>
+      </c>
+      <c r="I31" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="7">
+        <v>684</v>
+      </c>
+      <c r="N31" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7">
+        <v>12594</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="7">
+        <v>26</v>
+      </c>
+      <c r="I32" s="7">
+        <v>14964</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" s="7">
+        <v>50</v>
+      </c>
+      <c r="N32" s="7">
+        <v>27558</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>124</v>
+      </c>
+      <c r="D33" s="7">
+        <v>93301</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="7">
+        <v>89</v>
+      </c>
+      <c r="I33" s="7">
+        <v>55857</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" s="7">
+        <v>213</v>
+      </c>
+      <c r="N33" s="7">
+        <v>149158</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>218</v>
+      </c>
+      <c r="D34" s="7">
+        <v>178988</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" s="7">
+        <v>183</v>
+      </c>
+      <c r="I34" s="7">
+        <v>131469</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" s="7">
+        <v>401</v>
+      </c>
+      <c r="N34" s="7">
+        <v>310457</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7">
+        <v>417</v>
+      </c>
+      <c r="D35" s="7">
+        <v>317578</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="7">
+        <v>456</v>
+      </c>
+      <c r="I35" s="7">
+        <v>321776</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M35" s="7">
+        <v>873</v>
+      </c>
+      <c r="N35" s="7">
+        <v>639355</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="7">
+        <v>139</v>
+      </c>
+      <c r="D36" s="7">
+        <v>92200</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="7">
+        <v>143</v>
+      </c>
+      <c r="I36" s="7">
+        <v>102967</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M36" s="7">
+        <v>282</v>
+      </c>
+      <c r="N36" s="7">
+        <v>195167</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="7">
+        <v>47</v>
+      </c>
+      <c r="D37" s="7">
+        <v>26921</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" s="7">
+        <v>42</v>
+      </c>
+      <c r="I37" s="7">
+        <v>24331</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" s="7">
+        <v>89</v>
+      </c>
+      <c r="N37" s="7">
+        <v>51252</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <v>969</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D38" s="7">
         <v>721582</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="7">
         <v>939</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I38" s="7">
         <v>651363</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="7">
         <v>1908</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N38" s="7">
         <v>1372946</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>69</v>
+      <c r="O38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/ip24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0030E320-62B9-4BF1-85DA-D673DB07D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC1210D-204B-48FE-B4E3-EBB14735B993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AFD44F4-094C-49EC-AFF0-7F66E3278B9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDE3A011-911A-4E0B-A656-4D682E43C6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="277">
   <si>
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre / solo 2023 en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>7,94%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
@@ -104,28 +104,28 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
@@ -137,673 +137,667 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,21%</t>
+    <t>7,07%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio, no tiene tiempo libre</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>NO hace ejercicio, no tiene tiempo libre</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,22%</t>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>22,61%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>40,78%</t>
+    <t>40,21%</t>
   </si>
   <si>
     <t>47,51%</t>
@@ -812,67 +806,64 @@
     <t>49,4%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>52,93%</t>
   </si>
   <si>
     <t>46,57%</t>
   </si>
   <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>10,56%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1287,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B3DF5-2B76-429E-AD09-C00368927DCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFDE5CB-95EA-4177-931B-7BA38D105DA9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1803,10 +1794,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,13 +1812,13 @@
         <v>11624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -1836,13 +1827,13 @@
         <v>8193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>35</v>
@@ -1851,13 +1842,13 @@
         <v>19817</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,13 +1863,13 @@
         <v>39317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -1887,13 +1878,13 @@
         <v>20741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -1902,13 +1893,13 @@
         <v>60057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,13 +1914,13 @@
         <v>90898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -1938,13 +1929,13 @@
         <v>94983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -1953,13 +1944,13 @@
         <v>185880</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1965,13 @@
         <v>18948</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -1989,13 +1980,13 @@
         <v>24071</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>71</v>
@@ -2004,13 +1995,13 @@
         <v>43019</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2016,13 @@
         <v>7667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2040,13 +2031,13 @@
         <v>6461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -2055,13 +2046,13 @@
         <v>14128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,7 +2108,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2129,13 +2120,13 @@
         <v>984</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2144,7 +2135,7 @@
         <v>2468</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>127</v>
@@ -2336,10 +2327,10 @@
         <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2348,13 +2339,13 @@
         <v>17873</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -2363,13 +2354,13 @@
         <v>38673</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2375,13 @@
         <v>4111</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2399,13 +2390,13 @@
         <v>2803</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2414,13 +2405,13 @@
         <v>6914</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,7 +2467,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2488,13 +2479,13 @@
         <v>794</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2506,10 +2497,10 @@
         <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2518,13 +2509,13 @@
         <v>2964</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2530,13 @@
         <v>51626</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -2554,13 +2545,13 @@
         <v>26514</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>108</v>
@@ -2569,13 +2560,13 @@
         <v>78139</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2581,13 @@
         <v>83630</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>91</v>
@@ -2605,13 +2596,13 @@
         <v>69075</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>190</v>
@@ -2620,13 +2611,13 @@
         <v>152705</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2632,13 @@
         <v>114245</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>148</v>
@@ -2656,13 +2647,13 @@
         <v>111603</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>278</v>
@@ -2671,13 +2662,13 @@
         <v>225849</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2683,13 @@
         <v>32976</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -2707,13 +2698,13 @@
         <v>44712</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>87</v>
@@ -2722,13 +2713,13 @@
         <v>77687</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2734,13 @@
         <v>6154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -2758,13 +2749,13 @@
         <v>6559</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -2773,13 +2764,13 @@
         <v>12713</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2838,13 @@
         <v>12594</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -2862,13 +2853,13 @@
         <v>14964</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
@@ -2877,13 +2868,13 @@
         <v>27558</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2889,13 @@
         <v>93301</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H33" s="7">
         <v>89</v>
@@ -2913,13 +2904,13 @@
         <v>55857</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M33" s="7">
         <v>213</v>
@@ -2928,13 +2919,13 @@
         <v>149158</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2940,13 @@
         <v>178988</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>183</v>
@@ -2964,13 +2955,13 @@
         <v>131469</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M34" s="7">
         <v>401</v>
@@ -2979,13 +2970,13 @@
         <v>310457</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2991,13 @@
         <v>317578</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H35" s="7">
         <v>456</v>
@@ -3015,13 +3006,13 @@
         <v>321776</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M35" s="7">
         <v>873</v>
@@ -3030,13 +3021,13 @@
         <v>639355</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3042,13 @@
         <v>92200</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="H36" s="7">
         <v>143</v>
@@ -3066,13 +3057,13 @@
         <v>102967</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M36" s="7">
         <v>282</v>
@@ -3081,13 +3072,13 @@
         <v>195167</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3093,13 @@
         <v>26921</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -3117,13 +3108,13 @@
         <v>24331</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="M37" s="7">
         <v>89</v>
@@ -3132,13 +3123,13 @@
         <v>51252</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3185,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC1210D-204B-48FE-B4E3-EBB14735B993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E4F168D-0FE0-42BB-AFF2-9724FC083CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDE3A011-911A-4E0B-A656-4D682E43C6BE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1FA650CD-2B84-4B41-A7E4-7C24DB91C31A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="283">
   <si>
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre / solo 2023 en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,181 +71,181 @@
     <t>Otros</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
   </si>
   <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
   </si>
   <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>NO hace ejercicio, no tiene tiempo libre</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -254,616 +254,634 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1278,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFDE5CB-95EA-4177-931B-7BA38D105DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFAEA3-FBB1-4CD6-A344-0FB7AD05406A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1396,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>4424</v>
+        <v>5949</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1411,10 +1429,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>6009</v>
+        <v>4618</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1429,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>10432</v>
+        <v>10567</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1447,10 +1465,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1748</v>
+        <v>3211</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1462,10 +1480,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3104</v>
+        <v>1754</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1480,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>4852</v>
+        <v>4965</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1498,10 +1516,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>1110</v>
+        <v>2744</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1513,10 +1531,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2713</v>
+        <v>1252</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1531,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>3823</v>
+        <v>3996</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1549,10 +1567,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>19975</v>
+        <v>18744</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1564,10 +1582,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>19207</v>
+        <v>20268</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1582,7 +1600,7 @@
         <v>69</v>
       </c>
       <c r="N7" s="7">
-        <v>39183</v>
+        <v>39012</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1600,10 +1618,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>19476</v>
+        <v>16782</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1615,10 +1633,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>16312</v>
+        <v>21482</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1633,7 +1651,7 @@
         <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>35788</v>
+        <v>38263</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1651,10 +1669,10 @@
         <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>8989</v>
+        <v>8571</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -1666,10 +1684,10 @@
         <v>63</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>8508</v>
+        <v>9198</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -1684,7 +1702,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>17497</v>
+        <v>17768</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -1702,25 +1720,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
+        <v>106</v>
+      </c>
+      <c r="D10" s="7">
+        <v>56000</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="7">
         <v>110</v>
       </c>
-      <c r="D10" s="7">
-        <v>55722</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7">
-        <v>106</v>
-      </c>
       <c r="I10" s="7">
-        <v>55853</v>
+        <v>58571</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>70</v>
@@ -1735,7 +1753,7 @@
         <v>216</v>
       </c>
       <c r="N10" s="7">
-        <v>111575</v>
+        <v>114571</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>70</v>
@@ -1755,49 +1773,49 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>6393</v>
+        <v>4349</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>4316</v>
+        <v>6884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>10709</v>
+        <v>11233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,49 +1824,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8168</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="7">
         <v>18</v>
       </c>
-      <c r="D12" s="7">
-        <v>11624</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="7">
-        <v>17</v>
-      </c>
       <c r="I12" s="7">
-        <v>8193</v>
+        <v>12131</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>35</v>
       </c>
       <c r="N12" s="7">
-        <v>19817</v>
+        <v>20299</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,49 +1875,49 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20296</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="7">
         <v>57</v>
       </c>
-      <c r="D13" s="7">
-        <v>39317</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="7">
-        <v>35</v>
-      </c>
       <c r="I13" s="7">
-        <v>20741</v>
+        <v>41505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
       </c>
       <c r="N13" s="7">
-        <v>60057</v>
+        <v>61802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,49 +1926,49 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
+        <v>148</v>
+      </c>
+      <c r="D14" s="7">
+        <v>92841</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="7">
         <v>142</v>
       </c>
-      <c r="D14" s="7">
-        <v>90898</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="7">
-        <v>148</v>
-      </c>
       <c r="I14" s="7">
-        <v>94983</v>
+        <v>92659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
       </c>
       <c r="N14" s="7">
-        <v>185880</v>
+        <v>185500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,49 +1977,49 @@
         <v>50</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27146</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="7">
         <v>34</v>
       </c>
-      <c r="D15" s="7">
-        <v>18948</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
       <c r="I15" s="7">
-        <v>24071</v>
+        <v>20948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>71</v>
       </c>
       <c r="N15" s="7">
-        <v>43019</v>
+        <v>48093</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,49 +2028,49 @@
         <v>60</v>
       </c>
       <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6498</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="7">
         <v>13</v>
       </c>
-      <c r="D16" s="7">
-        <v>7667</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
       <c r="I16" s="7">
-        <v>6461</v>
+        <v>7964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>14128</v>
+        <v>14462</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,25 +2079,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>258</v>
+      </c>
+      <c r="D17" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7">
         <v>275</v>
       </c>
-      <c r="D17" s="7">
-        <v>174846</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="7">
-        <v>258</v>
-      </c>
       <c r="I17" s="7">
-        <v>158765</v>
+        <v>182090</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>70</v>
@@ -2094,7 +2112,7 @@
         <v>533</v>
       </c>
       <c r="N17" s="7">
-        <v>333610</v>
+        <v>341389</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
@@ -2108,55 +2126,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2379</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
-        <v>984</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
       <c r="I18" s="7">
-        <v>2468</v>
+        <v>1027</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>3452</v>
+        <v>3405</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,49 +2183,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18422</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="7">
         <v>36</v>
       </c>
-      <c r="D19" s="7">
-        <v>28304</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
       <c r="I19" s="7">
-        <v>18046</v>
+        <v>29941</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>46350</v>
+        <v>48363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,49 +2234,49 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7">
+        <v>37505</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="7">
         <v>60</v>
       </c>
-      <c r="D20" s="7">
-        <v>54931</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="7">
-        <v>52</v>
-      </c>
       <c r="I20" s="7">
-        <v>38940</v>
+        <v>57728</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
       </c>
       <c r="N20" s="7">
-        <v>93871</v>
+        <v>95233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,49 +2285,49 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
+        <v>126</v>
+      </c>
+      <c r="D21" s="7">
+        <v>93882</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="7">
         <v>110</v>
       </c>
-      <c r="D21" s="7">
-        <v>92460</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="7">
-        <v>126</v>
-      </c>
       <c r="I21" s="7">
-        <v>95983</v>
+        <v>94407</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M21" s="7">
         <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>188443</v>
+        <v>188290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,49 +2336,49 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7">
+        <v>18069</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="7">
         <v>29</v>
       </c>
-      <c r="D22" s="7">
-        <v>20799</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="7">
-        <v>23</v>
-      </c>
       <c r="I22" s="7">
-        <v>17873</v>
+        <v>24279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
       </c>
       <c r="N22" s="7">
-        <v>38673</v>
+        <v>42348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,49 +2387,49 @@
         <v>60</v>
       </c>
       <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2815</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
-        <v>4111</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="7">
-        <v>4</v>
-      </c>
       <c r="I23" s="7">
-        <v>2803</v>
+        <v>4170</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>6914</v>
+        <v>6985</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,25 +2438,25 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>233</v>
+      </c>
+      <c r="D24" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="7">
         <v>242</v>
       </c>
-      <c r="D24" s="7">
-        <v>201590</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="7">
-        <v>233</v>
-      </c>
       <c r="I24" s="7">
-        <v>176113</v>
+        <v>211553</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -2453,7 +2471,7 @@
         <v>475</v>
       </c>
       <c r="N24" s="7">
-        <v>377703</v>
+        <v>384625</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2467,55 +2485,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2178</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
-        <v>794</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
       <c r="I25" s="7">
-        <v>2171</v>
+        <v>842</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>2964</v>
+        <v>3021</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,49 +2542,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
+        <v>41</v>
+      </c>
+      <c r="D26" s="7">
+        <v>26046</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="7">
         <v>67</v>
       </c>
-      <c r="D26" s="7">
-        <v>51626</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H26" s="7">
-        <v>41</v>
-      </c>
       <c r="I26" s="7">
-        <v>26514</v>
+        <v>52963</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>108</v>
       </c>
       <c r="N26" s="7">
-        <v>78139</v>
+        <v>79009</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,49 +2593,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
+        <v>91</v>
+      </c>
+      <c r="D27" s="7">
+        <v>64880</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="7">
         <v>99</v>
       </c>
-      <c r="D27" s="7">
-        <v>83630</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H27" s="7">
-        <v>91</v>
-      </c>
       <c r="I27" s="7">
-        <v>69075</v>
+        <v>84417</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M27" s="7">
         <v>190</v>
       </c>
       <c r="N27" s="7">
-        <v>152705</v>
+        <v>149296</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,49 +2644,49 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
+        <v>148</v>
+      </c>
+      <c r="D28" s="7">
+        <v>106839</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="7">
         <v>130</v>
       </c>
-      <c r="D28" s="7">
-        <v>114245</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H28" s="7">
-        <v>148</v>
-      </c>
       <c r="I28" s="7">
-        <v>111603</v>
+        <v>119800</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M28" s="7">
         <v>278</v>
       </c>
       <c r="N28" s="7">
-        <v>225849</v>
+        <v>226639</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2695,49 @@
         <v>50</v>
       </c>
       <c r="C29" s="7">
+        <v>51</v>
+      </c>
+      <c r="D29" s="7">
+        <v>68911</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="7">
         <v>36</v>
       </c>
-      <c r="D29" s="7">
-        <v>32976</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="7">
-        <v>51</v>
-      </c>
       <c r="I29" s="7">
-        <v>44712</v>
+        <v>40967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
         <v>87</v>
       </c>
       <c r="N29" s="7">
-        <v>77687</v>
+        <v>109878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,46 +2749,46 @@
         <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>6154</v>
+        <v>6604</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>6559</v>
+        <v>6494</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
       </c>
       <c r="N30" s="7">
-        <v>12713</v>
+        <v>13098</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2800,7 @@
         <v>342</v>
       </c>
       <c r="D31" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>70</v>
@@ -2797,7 +2815,7 @@
         <v>342</v>
       </c>
       <c r="I31" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>70</v>
@@ -2812,7 +2830,7 @@
         <v>684</v>
       </c>
       <c r="N31" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>70</v>
@@ -2832,49 +2850,49 @@
         <v>10</v>
       </c>
       <c r="C32" s="7">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7">
+        <v>14855</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="7">
         <v>24</v>
       </c>
-      <c r="D32" s="7">
-        <v>12594</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32" s="7">
-        <v>26</v>
-      </c>
       <c r="I32" s="7">
-        <v>14964</v>
+        <v>13370</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
       </c>
       <c r="N32" s="7">
-        <v>27558</v>
+        <v>28225</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,49 +2901,49 @@
         <v>20</v>
       </c>
       <c r="C33" s="7">
+        <v>89</v>
+      </c>
+      <c r="D33" s="7">
+        <v>55847</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H33" s="7">
         <v>124</v>
       </c>
-      <c r="D33" s="7">
-        <v>93301</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H33" s="7">
-        <v>89</v>
-      </c>
       <c r="I33" s="7">
-        <v>55857</v>
+        <v>96789</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M33" s="7">
         <v>213</v>
       </c>
       <c r="N33" s="7">
-        <v>149158</v>
+        <v>152636</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,49 +2952,49 @@
         <v>30</v>
       </c>
       <c r="C34" s="7">
+        <v>183</v>
+      </c>
+      <c r="D34" s="7">
+        <v>125424</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="7">
         <v>218</v>
       </c>
-      <c r="D34" s="7">
-        <v>178988</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="7">
-        <v>183</v>
-      </c>
       <c r="I34" s="7">
-        <v>131469</v>
+        <v>184903</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M34" s="7">
         <v>401</v>
       </c>
       <c r="N34" s="7">
-        <v>310457</v>
+        <v>310327</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,49 +3003,49 @@
         <v>40</v>
       </c>
       <c r="C35" s="7">
+        <v>456</v>
+      </c>
+      <c r="D35" s="7">
+        <v>312307</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H35" s="7">
         <v>417</v>
       </c>
-      <c r="D35" s="7">
-        <v>317578</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="7">
-        <v>456</v>
-      </c>
       <c r="I35" s="7">
-        <v>321776</v>
+        <v>327134</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M35" s="7">
         <v>873</v>
       </c>
       <c r="N35" s="7">
-        <v>639355</v>
+        <v>639441</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,49 +3054,49 @@
         <v>50</v>
       </c>
       <c r="C36" s="7">
+        <v>143</v>
+      </c>
+      <c r="D36" s="7">
+        <v>130908</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" s="7">
         <v>139</v>
       </c>
-      <c r="D36" s="7">
-        <v>92200</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H36" s="7">
-        <v>143</v>
-      </c>
       <c r="I36" s="7">
-        <v>102967</v>
+        <v>107675</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M36" s="7">
         <v>282</v>
       </c>
       <c r="N36" s="7">
-        <v>195167</v>
+        <v>238583</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,49 +3105,49 @@
         <v>60</v>
       </c>
       <c r="C37" s="7">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7">
+        <v>24488</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" s="7">
         <v>47</v>
       </c>
-      <c r="D37" s="7">
-        <v>26921</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H37" s="7">
-        <v>42</v>
-      </c>
       <c r="I37" s="7">
-        <v>24331</v>
+        <v>27826</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="M37" s="7">
         <v>89</v>
       </c>
       <c r="N37" s="7">
-        <v>51252</v>
+        <v>52314</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,25 +3156,25 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>939</v>
+      </c>
+      <c r="D38" s="7">
+        <v>663829</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="7">
         <v>969</v>
       </c>
-      <c r="D38" s="7">
-        <v>721582</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="7">
-        <v>939</v>
-      </c>
       <c r="I38" s="7">
-        <v>651363</v>
+        <v>757697</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>70</v>
@@ -3171,7 +3189,7 @@
         <v>1908</v>
       </c>
       <c r="N38" s="7">
-        <v>1372946</v>
+        <v>1421526</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>70</v>
@@ -3185,7 +3203,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
